--- a/OnBoard/output/trust/catch/Catch_Trust_74.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_74.xlsx
@@ -1966,7 +1966,7 @@
         <v>0.024</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39">
         <v>4.497833333333333</v>
@@ -2048,7 +2048,7 @@
         <v>0.014</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I41">
         <v>4.497833333333333</v>
@@ -2089,7 +2089,7 @@
         <v>0.044</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I42">
         <v>4.497833333333333</v>
@@ -2130,7 +2130,7 @@
         <v>0.018</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I43">
         <v>4.497833333333333</v>
@@ -2171,7 +2171,7 @@
         <v>0.012</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I44">
         <v>4.497833333333333</v>
@@ -2622,7 +2622,7 @@
         <v>2.776</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I55">
         <v>4.497833333333333</v>
@@ -2663,7 +2663,7 @@
         <v>0.556</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I56">
         <v>4.497833333333333</v>
@@ -2745,7 +2745,7 @@
         <v>0.573</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I58">
         <v>4.497833333333333</v>
